--- a/Table S2 Performance comparison among optional models.xlsx
+++ b/Table S2 Performance comparison among optional models.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub local repositories\Mining-Social-Media-Data-for-Revealing-Public-Attitudes-toward-Mobile-Cabin-Hospitals\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65AA4B67-3102-412A-812D-F16C111E11C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D2B4E8F-8C67-4ADA-B319-A4CAFB1F6F94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{61DB2C62-3D29-4688-BE5F-B2D50B231AFB}"/>
   </bookViews>
@@ -25,53 +25,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
   <si>
     <t>Bert</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>TextCNN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>TextRNN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>TextRCNN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CapsuleNet</t>
+  </si>
+  <si>
+    <t>Precision</t>
+  </si>
+  <si>
+    <t>Recall</t>
+  </si>
+  <si>
+    <t>F1-score</t>
   </si>
   <si>
     <t>Capsule Net</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bert</t>
-  </si>
-  <si>
-    <t>TextCNN</t>
-  </si>
-  <si>
-    <t>TextRNN</t>
-  </si>
-  <si>
-    <t>TextRCNN</t>
-  </si>
-  <si>
-    <t>CapsuleNet</t>
-  </si>
-  <si>
-    <t>Precision</t>
-  </si>
-  <si>
-    <t>Recall</t>
-  </si>
-  <si>
-    <t>F1-score</t>
-  </si>
-  <si>
-    <t>Capsule Net</t>
   </si>
   <si>
     <t>Performance comparison of five models for positive topic classification</t>
@@ -84,6 +64,21 @@
   </si>
   <si>
     <t>Models</t>
+  </si>
+  <si>
+    <t>Transfer-learning based on Bert</t>
+  </si>
+  <si>
+    <t>Transfer-learning based on TextCNN</t>
+  </si>
+  <si>
+    <t>Transfer-learning based on TextRNN</t>
+  </si>
+  <si>
+    <t>Transfer-learning based on TextRCNN</t>
+  </si>
+  <si>
+    <t>Transfer-learning based on Capsule Net</t>
   </si>
 </sst>
 </file>
@@ -172,14 +167,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -498,8 +493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3444B9E8-2E1E-4B08-AD5B-0ACCE9BF7D71}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="82" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.453125" defaultRowHeight="15.5"/>
@@ -508,272 +503,270 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="42.5" customHeight="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.91415000000000002</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.84233000000000002</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.84028000000000003</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.89873999999999998</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.89873999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.91568000000000005</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.83586000000000005</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.84438999999999997</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.89792000000000005</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.89981</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.91457999999999995</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.83435999999999999</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.83762999999999999</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.89812999999999998</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.89678999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="44.5" customHeight="1">
+      <c r="A8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F9" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="3" t="s">
+    <row r="10" spans="1:6">
+      <c r="A10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.96153999999999995</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.88915</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.88005999999999995</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.88636999999999999</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0.93191999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.96114999999999995</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.81869000000000003</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.85199000000000003</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.80388999999999999</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0.95374999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.96094999999999997</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.84689999999999999</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.86345000000000005</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.84184999999999999</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0.94159999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="54.5" customHeight="1">
+      <c r="A15" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="4">
-        <v>0.91415000000000002</v>
-      </c>
-      <c r="C3" s="4">
-        <v>0.84233000000000002</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0.84028000000000003</v>
-      </c>
-      <c r="E3" s="4">
-        <v>0.89873999999999998</v>
-      </c>
-      <c r="F3" s="4">
-        <v>0.89873999999999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="4">
-        <v>0.91568000000000005</v>
-      </c>
-      <c r="C4" s="4">
-        <v>0.83586000000000005</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0.84438999999999997</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0.89792000000000005</v>
-      </c>
-      <c r="F4" s="4">
-        <v>0.89981</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="3" t="s">
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="4">
-        <v>0.91457999999999995</v>
-      </c>
-      <c r="C5" s="4">
-        <v>0.83435999999999999</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0.83762999999999999</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0.89812999999999998</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0.89678999999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="44.5" customHeight="1">
-      <c r="A8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="3" t="s">
+      <c r="B16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="B17" s="3">
+        <v>0.91498000000000002</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0.89224999999999999</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0.79532000000000003</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0.89605000000000001</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0.87553999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="B18" s="3">
+        <v>0.95170999999999994</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0.68905000000000005</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0.70906999999999998</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0.91754999999999998</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0.91047999999999996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="4">
-        <v>0.96153999999999995</v>
-      </c>
-      <c r="C10" s="4">
-        <v>0.88915</v>
-      </c>
-      <c r="D10" s="4">
-        <v>0.88005999999999995</v>
-      </c>
-      <c r="E10" s="4">
-        <v>0.88636999999999999</v>
-      </c>
-      <c r="F10" s="4">
-        <v>0.93191999999999997</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="4">
-        <v>0.96114999999999995</v>
-      </c>
-      <c r="C11" s="4">
-        <v>0.81869000000000003</v>
-      </c>
-      <c r="D11" s="4">
-        <v>0.85199000000000003</v>
-      </c>
-      <c r="E11" s="4">
-        <v>0.80388999999999999</v>
-      </c>
-      <c r="F11" s="4">
-        <v>0.95374999999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="4">
-        <v>0.96094999999999997</v>
-      </c>
-      <c r="C12" s="4">
-        <v>0.84689999999999999</v>
-      </c>
-      <c r="D12" s="4">
-        <v>0.86345000000000005</v>
-      </c>
-      <c r="E12" s="4">
-        <v>0.84184999999999999</v>
-      </c>
-      <c r="F12" s="4">
-        <v>0.94159999999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="54.5" customHeight="1">
-      <c r="A15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="4">
-        <v>0.91498000000000002</v>
-      </c>
-      <c r="C17" s="4">
-        <v>0.89224999999999999</v>
-      </c>
-      <c r="D17" s="4">
-        <v>0.79532000000000003</v>
-      </c>
-      <c r="E17" s="4">
-        <v>0.89605000000000001</v>
-      </c>
-      <c r="F17" s="4">
-        <v>0.87553999999999998</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="4">
-        <v>0.95170999999999994</v>
-      </c>
-      <c r="C18" s="4">
-        <v>0.68905000000000005</v>
-      </c>
-      <c r="D18" s="4">
-        <v>0.70906999999999998</v>
-      </c>
-      <c r="E18" s="4">
-        <v>0.91754999999999998</v>
-      </c>
-      <c r="F18" s="4">
-        <v>0.91047999999999996</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="4">
+      <c r="B19" s="3">
         <v>0.93045</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="3">
         <v>0.75719000000000003</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="3">
         <v>0.74056999999999995</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="3">
         <v>0.90410000000000001</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="3">
         <v>0.89034999999999997</v>
       </c>
     </row>

--- a/Table S2 Performance comparison among optional models.xlsx
+++ b/Table S2 Performance comparison among optional models.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub local repositories\Mining-Social-Media-Data-for-Revealing-Public-Attitudes-toward-Mobile-Cabin-Hospitals\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D2B4E8F-8C67-4ADA-B319-A4CAFB1F6F94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46180BB8-F9EB-401A-BE34-4F06D620D027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{61DB2C62-3D29-4688-BE5F-B2D50B231AFB}"/>
   </bookViews>
@@ -20,27 +20,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
-  <si>
-    <t>Bert</t>
-  </si>
-  <si>
-    <t>TextCNN</t>
-  </si>
-  <si>
-    <t>TextRNN</t>
-  </si>
-  <si>
-    <t>TextRCNN</t>
-  </si>
-  <si>
-    <t>CapsuleNet</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
   <si>
     <t>Precision</t>
   </si>
@@ -49,9 +43,6 @@
   </si>
   <si>
     <t>F1-score</t>
-  </si>
-  <si>
-    <t>Capsule Net</t>
   </si>
   <si>
     <t>Performance comparison of five models for positive topic classification</t>
@@ -160,7 +151,7 @@
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -175,6 +166,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -493,18 +493,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3444B9E8-2E1E-4B08-AD5B-0ACCE9BF7D71}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="82" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F5"/>
+    <sheetView tabSelected="1" zoomScale="64" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.453125" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="16384" width="23.453125" style="1"/>
+    <col min="1" max="1" width="23.453125" style="1"/>
+    <col min="2" max="2" width="36.90625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.7265625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="36.6328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="43.36328125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="42.08984375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="23.453125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="42.5" customHeight="1">
       <c r="A1" s="4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -512,27 +518,29 @@
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>17</v>
+    <row r="2" spans="1:6" s="7" customFormat="1" ht="38" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B3" s="3">
         <v>0.91415000000000002</v>
@@ -552,7 +560,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B4" s="3">
         <v>0.91568000000000005</v>
@@ -572,27 +580,34 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0.91457999999999995</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0.83435999999999999</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0.83762999999999999</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0.89812999999999998</v>
-      </c>
-      <c r="F5" s="3">
-        <v>0.89678999999999998</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0.91415000000000013</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.84233000000000002</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.84028000000000003</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.89873999999999987</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0.89873999999999987</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
     </row>
     <row r="8" spans="1:6" ht="44.5" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -600,29 +615,29 @@
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" ht="31">
       <c r="A9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B10" s="3">
         <v>0.96153999999999995</v>
@@ -642,7 +657,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B11" s="3">
         <v>0.96114999999999995</v>
@@ -662,27 +677,27 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B12" s="3">
-        <v>0.96094999999999997</v>
+        <v>0.96134496044604167</v>
       </c>
       <c r="C12" s="3">
-        <v>0.84689999999999999</v>
+        <v>0.85246652321060523</v>
       </c>
       <c r="D12" s="3">
-        <v>0.86345000000000005</v>
+        <v>0.86579754556739119</v>
       </c>
       <c r="E12" s="3">
-        <v>0.84184999999999999</v>
+        <v>0.84311760238069877</v>
       </c>
       <c r="F12" s="3">
-        <v>0.94159999999999999</v>
+        <v>0.94270863936956084</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="54.5" customHeight="1">
       <c r="A15" s="4" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -690,29 +705,29 @@
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" ht="31">
       <c r="A16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>8</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="2" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B17" s="3">
         <v>0.91498000000000002</v>
@@ -732,7 +747,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B18" s="3">
         <v>0.95170999999999994</v>
@@ -752,22 +767,22 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B19" s="3">
-        <v>0.93045</v>
+        <v>0.93298364034735271</v>
       </c>
       <c r="C19" s="3">
-        <v>0.75719000000000003</v>
+        <v>0.7775942104597483</v>
       </c>
       <c r="D19" s="3">
-        <v>0.74056999999999995</v>
+        <v>0.74972254854126918</v>
       </c>
       <c r="E19" s="3">
-        <v>0.90410000000000001</v>
+        <v>0.90667256010145558</v>
       </c>
       <c r="F19" s="3">
-        <v>0.89034999999999997</v>
+        <v>0.8926682335024243</v>
       </c>
     </row>
   </sheetData>

--- a/Table S2 Performance comparison among optional models.xlsx
+++ b/Table S2 Performance comparison among optional models.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub local repositories\Mining-Social-Media-Data-for-Revealing-Public-Attitudes-toward-Mobile-Cabin-Hospitals\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46180BB8-F9EB-401A-BE34-4F06D620D027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD4DE7D9-CA96-49CA-9DB6-2CC4235317C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{61DB2C62-3D29-4688-BE5F-B2D50B231AFB}"/>
+    <workbookView xWindow="12790" yWindow="2460" windowWidth="7500" windowHeight="6000" xr2:uid="{61DB2C62-3D29-4688-BE5F-B2D50B231AFB}"/>
   </bookViews>
   <sheets>
     <sheet name="Performance Comparison" sheetId="1" r:id="rId1"/>
@@ -164,9 +164,6 @@
     <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -175,6 +172,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -491,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3444B9E8-2E1E-4B08-AD5B-0ACCE9BF7D71}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="64" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:F8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="64" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.453125" defaultRowHeight="15.5"/>
@@ -509,32 +509,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="42.5" customHeight="1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-    </row>
-    <row r="2" spans="1:6" s="7" customFormat="1" ht="38" customHeight="1">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+    </row>
+    <row r="2" spans="1:6" s="6" customFormat="1" ht="38" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>11</v>
       </c>
     </row>
@@ -582,20 +582,20 @@
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="5">
-        <v>0.91415000000000013</v>
-      </c>
-      <c r="C5" s="5">
-        <v>0.84233000000000002</v>
-      </c>
-      <c r="D5" s="5">
-        <v>0.84028000000000003</v>
-      </c>
-      <c r="E5" s="5">
-        <v>0.89873999999999987</v>
-      </c>
-      <c r="F5" s="5">
-        <v>0.89873999999999987</v>
+      <c r="B5" s="4">
+        <v>0.91491436035041507</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.83908252796167304</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.84232998652555091</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.89832981287500135</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.89927468171582658</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -606,32 +606,32 @@
       <c r="F6" s="3"/>
     </row>
     <row r="8" spans="1:6" ht="44.5" customHeight="1">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:6" ht="31">
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="5" t="s">
         <v>11</v>
       </c>
     </row>
@@ -696,32 +696,32 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="54.5" customHeight="1">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="1:6" ht="31">
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="5" t="s">
         <v>11</v>
       </c>
     </row>
@@ -753,7 +753,7 @@
         <v>0.95170999999999994</v>
       </c>
       <c r="C18" s="3">
-        <v>0.68905000000000005</v>
+        <v>0.74441000000000002</v>
       </c>
       <c r="D18" s="3">
         <v>0.70906999999999998</v>
@@ -773,7 +773,8 @@
         <v>0.93298364034735271</v>
       </c>
       <c r="C19" s="3">
-        <v>0.7775942104597483</v>
+        <f>2*C17*C18/(C17+C18)</f>
+        <v>0.81165278371805993</v>
       </c>
       <c r="D19" s="3">
         <v>0.74972254854126918</v>
@@ -784,6 +785,9 @@
       <c r="F19" s="3">
         <v>0.8926682335024243</v>
       </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="C22" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Table S2 Performance comparison among optional models.xlsx
+++ b/Table S2 Performance comparison among optional models.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub local repositories\Mining-Social-Media-Data-for-Revealing-Public-Attitudes-toward-Mobile-Cabin-Hospitals\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD4DE7D9-CA96-49CA-9DB6-2CC4235317C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53C04555-875C-44D0-8AE1-E6FBCE39C52B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12790" yWindow="2460" windowWidth="7500" windowHeight="6000" xr2:uid="{61DB2C62-3D29-4688-BE5F-B2D50B231AFB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{61DB2C62-3D29-4688-BE5F-B2D50B231AFB}"/>
   </bookViews>
   <sheets>
     <sheet name="Performance Comparison" sheetId="1" r:id="rId1"/>
@@ -48,9 +48,6 @@
     <t>Performance comparison of five models for positive topic classification</t>
   </si>
   <si>
-    <t>Performance comparison of five models for Negative topic classification</t>
-  </si>
-  <si>
     <t xml:space="preserve">Performance comparison of five models for sentiment analysis </t>
   </si>
   <si>
@@ -70,6 +67,9 @@
   </si>
   <si>
     <t>Transfer-learning based on Capsule Net</t>
+  </si>
+  <si>
+    <t>Performance comparison of five models for negative topic classification</t>
   </si>
 </sst>
 </file>
@@ -491,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3444B9E8-2E1E-4B08-AD5B-0ACCE9BF7D71}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="64" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" zoomScale="64" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.453125" defaultRowHeight="15.5"/>
@@ -510,7 +510,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="42.5" customHeight="1">
       <c r="A1" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -520,22 +520,22 @@
     </row>
     <row r="2" spans="1:6" s="6" customFormat="1" ht="38" customHeight="1">
       <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>10</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -617,22 +617,22 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="C9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="D9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="E9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="F9" s="5" t="s">
         <v>10</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -697,7 +697,7 @@
     </row>
     <row r="15" spans="1:6" ht="54.5" customHeight="1">
       <c r="A15" s="7" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -707,22 +707,22 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="C16" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="D16" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="E16" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="F16" s="5" t="s">
         <v>10</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -785,9 +785,6 @@
       <c r="F19" s="3">
         <v>0.8926682335024243</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="C22" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">
